--- a/Week1/Academic_Glossary.xlsx
+++ b/Week1/Academic_Glossary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,944 +468,1006 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>opioid misuse</t>
+          <t>self attention</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>80.0134</v>
+        <v>38.7886</v>
       </c>
       <c r="D2" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>3.2648</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>... perceived risk of harm from  opioid misuse in adolescents: a randomized ...</t>
-        </is>
-      </c>
+        <v>1.652</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>prescription opioid</t>
+          <t>attention heads</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>29.2833</v>
+        <v>24.5062</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>1.1586</v>
+        <v>1.4518</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>...id misuse (non-medical use of prescription opioids/ prescription opioid misuse ...</t>
+          <t>...ws (A), we vary the number of attention heads and the attention key and val...</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>self efficacy</t>
+          <t>sub layer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>27.8222</v>
+        <v>16.3884</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3071</v>
+        <v>0.6381</v>
       </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>substance use</t>
+          <t>neural networks</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>26.4038</v>
+        <v>15.7239</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0003</v>
+        <v>0.7169</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>...use and  ‘high-risk’ based on substance use or mental health screens—agre...</t>
+          <t>...ex recurrent or convolutional neural networks that include an encoder and a...</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>drug use</t>
+          <t>attention mechanism</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>18.9156</v>
+        <v>15.196</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7302999999999999</v>
+        <v>0.5969</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>...dicate that although  illicit drug use among youth is decreasing, fa...</t>
+          <t>... Transformer, based solely on attention mechanisms, dispensing with recurrence ...</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>serious games</t>
+          <t>dot product attention</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>17.8396</v>
+        <v>14.4008</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6972</v>
+        <v>0.6251</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>...lescents play  videogames21. ‘Serious games’, defined as games with a pri...</t>
+          <t>...dditive attention outperforms dot product attention without scaling for larger va...</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>heroin use</t>
+          <t>neural machine translation</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>16.3773</v>
+        <v>13.4643</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.804</v>
+        <v>0.6434</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>...cription opioid misuse and/or heroin use) often occurs in ado- lescenc...</t>
+          <t>...ghyun Cho, and Yoshua Bengio. Neural machine translation by jointly learning to align ...</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>self efficacy intentions</t>
+          <t>multi head attention</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>16.2675</v>
+        <v>12.5862</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8797</v>
+        <v>0.5407</v>
       </c>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>actual misuse</t>
+          <t>attention layers</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>14.1424</v>
+        <v>12.3983</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8571</v>
+        <v>0.5693</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>... with increased likelihood of actual misuse, underscoring the need for  i...</t>
+          <t>...Attention consists of several attention layers running in parallel. of the v...</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>harm scale</t>
+          <t>translation task</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>13.3757</v>
+        <v>11.2344</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8038999999999999</v>
+        <v>0.4885</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>...els for Perception of Risk of Harm Scale Results of logistic regressio...</t>
+          <t>...y. Experiments on two machine translation tasks show these models to be supe...</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>systematic review</t>
+          <t>training cost</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>12.1557</v>
+        <v>10.8549</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4691</v>
+        <v>0.5038</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>...ent opioid-related harms:   a systematic review. Addict. Behav. 163, 108268 (...</t>
+          <t>...GPUs, a small fraction of the training costs of the best models from the ...</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>school students</t>
+          <t>encoder decoder</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>11.8551</v>
+        <v>10.7091</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4899</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>...12% (1.9 million) of US  high-school students reported lifetime prescriptio...</t>
-        </is>
-      </c>
+        <v>0.4937</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>use prevention</t>
+          <t>sequence transduction</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>10.7783</v>
+        <v>10.1785</v>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2902</v>
+        <v>0.4568</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>... impact on scalable opioid misuse prevention.  ClinicalTrials.gov registra...</t>
+          <t>...ail.com Abstract The dominant sequence transduction models are based on complex r...</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>opioid misuse prevention</t>
+          <t>development set</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>9.821</v>
+        <v>10.1136</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.432</v>
+        <v>0.5357</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>...mizing its impact on scalable opioid misuse prevention.  ClinicalTrials.gov registra...</t>
+          <t>... after experimentation on the development set. We set the maximum output le...</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>risk perception</t>
+          <t>neural information processing</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>9.745699999999999</v>
+        <v>9.5063</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3434</v>
+        <v>0.4518</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>...a Table 2B). Finally, because risk perception differs between heroin and pr...</t>
+          <t>... Research. 31st Conference on Neural Information Processing Systems (NIPS 2017), Long Bea...</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>digital interventions</t>
+          <t>information processing systems</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>9.238899999999999</v>
+        <v>9.5063</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3916</v>
+        <v>0.4518</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>...ustainable distribution29–34. Digital interventions including  serious games have...</t>
+          <t>...ch. 31st Conference on Neural Information Processing Systems (NIPS 2017), Long Beach, CA, ...</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>anxiety depression</t>
+          <t>self attention layer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>9.009</v>
+        <v>9.4414</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>0.459</v>
+        <v>0.3223</v>
       </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>video game</t>
+          <t>english constituency</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>7.7015</v>
+        <v>9.3329</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2848</v>
+        <v>0.4815</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>...F. &amp; Fiellin, L. E. A serious video game targeting HIV testing and  co...</t>
+          <t>...y applying it successfully to English constituency parsing both with large and l...</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>use risk</t>
+          <t>german translation</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>7.5474</v>
+        <v>8.770300000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3991</v>
+        <v>0.4424</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>... Data Table 2B). Finally, because risk perception differs between he...</t>
+          <t>...U on the WMT 2014 English- to-German translation task, improving over the exis...</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>game intervention</t>
+          <t>positional encoding</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>7.1234</v>
+        <v>8.7058</v>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1197</v>
+        <v>0.3129</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>...fety,  and our PlaySmart videogame intervention described here specifically  ...</t>
+          <t>... O(r · n · d) O(1) O(n/r) 3.5 Positional Encoding Since our model contains no r...</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>prescription drug</t>
+          <t>supervised setting</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>6.7899</v>
+        <v>7.6264</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2215</v>
+        <v>0.4046</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>... with the non-medical use of  prescription drugs6,9–12 and heroin13. Individu...</t>
+          <t>... We also trained it in a semi-supervised setting, using the larger high-confid...</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>adolescent substance</t>
+          <t>attention function</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>6.6576</v>
+        <v>7.3816</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2957</v>
+        <v>0.3043</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>...re interventions  that target adolescent substance use, including opioids14, tha...</t>
+          <t>...less than i. 3.2 Attention An attention function can be described as mapping a...</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>adverse events</t>
+          <t>convolutional layers</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>6.2034</v>
+        <v>7.3633</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3058</v>
+        <v>0.3447</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>...7). Harms There were two mild adverse events reported, one at baseline and...</t>
+          <t>...so requires a stack of O(n/k) convolutional layers in the case of contiguous ker...</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>substance misuse</t>
+          <t>output positions</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>6.1296</v>
+        <v>6.9807</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>0.259</v>
+        <v>0.3181</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>...2 (1%) 1 (0%) 3 (1%) Familial substance misuseb (n, %) Father 29 (11%) 28 (1...</t>
+          <t>...in parallel for all input and output positions. In these models, the number ...</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>scoping review</t>
+          <t>layer normalization</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>6.0226</v>
+        <v>6.5533</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2516</v>
+        <v>0.3301</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>...s in educational settings:  a scoping review. World J. Psychiatry 13, 409–...</t>
+          <t>...e two sub-layers, followed by layer normalization [1]. That is, the output of e...</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>behaviour change</t>
+          <t>byte pair</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>5.8708</v>
+        <v>6.444</v>
       </c>
       <c r="D27" t="n">
         <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2827</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>...rg/10.1038/s44360-025-00010-z behaviour change theories and user-centred des...</t>
-        </is>
-      </c>
+        <v>0.3225</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>misuse initiation</t>
+          <t>warmup steps</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>5.6306</v>
+        <v>6.2876</v>
       </c>
       <c r="D28" t="n">
         <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>0.266</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>...arm—an important predictor of misuse initiation. Here, to  address this, we d...</t>
-        </is>
-      </c>
+        <v>0.3116</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>medical use</t>
+          <t>sentence pairs</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>5.5805</v>
+        <v>6.2876</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2209</v>
+        <v>0.3116</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>...tiation of opioid misuse (non-medical use of prescription opioids/ pres...</t>
+          <t>...nsisting of about 4.5 million sentence pairs. Sentences were encoded using...</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>false questions</t>
+          <t>international conference</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>5.4812</v>
+        <v>6.1907</v>
       </c>
       <c r="D30" t="n">
         <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2556</v>
+        <v>0.3049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>... scale  that included 27 true/false questions and three questions allowing ...</t>
+          <t>...ral GPUs learn algorithms. In International Conference on Learning Representations (...</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>intentions knowledge</t>
+          <t>maximum path length</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>5.3976</v>
+        <v>6.1585</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2498</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
+        <v>0.261</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>...ights by √dmodel. 5  Table 1: Maximum path lengths, per-layer complexity and mi...</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>decision making</t>
+          <t>sequential operations</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>5.2707</v>
+        <v>6.0488</v>
       </c>
       <c r="D32" t="n">
         <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>0.241</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
+        <v>0.2951</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>...plexity and minimum number of sequential operations for different layer types. n ...</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>placebo comparator</t>
+          <t>sequence modeling</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>5.169</v>
+        <v>5.969</v>
       </c>
       <c r="D33" t="n">
         <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0.234</v>
+        <v>0.2895</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>...ized  controlled trial with a placebo comparator. We randomized 532 participan...</t>
+          <t>...tate of the art approaches in sequence modeling and transduction problems suc...</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>parallel superiority</t>
+          <t>language modeling</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>5.169</v>
+        <v>5.969</v>
       </c>
       <c r="D34" t="n">
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.234</v>
+        <v>0.2895</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>... perceived risk, in a two-arm parallel superiority unblinded randomized  control...</t>
+          <t>...transduction problems such as language modeling and machine translation [35, ...</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>drug overdose</t>
+          <t>term memory</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>5.0457</v>
+        <v>5.9059</v>
       </c>
       <c r="D35" t="n">
         <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2254</v>
+        <v>0.2851</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>...4941950. An estimated 108,000 drug overdose deaths occurred in the United...</t>
+          <t>...t neural networks, long short-term memory [13] and gated recurrent [7] ...</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>self report</t>
+          <t>compatibility function</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>4.7602</v>
+        <v>5.7608</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1639</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
+        <v>0.2751</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>...o each value is computed by a compatibility function of the query with the corresp...</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>risk behavior</t>
+          <t>decoder stacks</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>4.4541</v>
+        <v>5.6502</v>
       </c>
       <c r="D37" t="n">
         <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1843</v>
+        <v>0.2674</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>...6, e2322303 (2023). 4.	 Youth Risk Behavior Survey Data Summary &amp; Trends ...</t>
+          <t>...respectively. 3.1 Encoder and Decoder Stacks Encoder: The encoder is compo...</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>illicit drug</t>
+          <t>memory networks</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>4.391</v>
+        <v>5.635</v>
       </c>
       <c r="D38" t="n">
         <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1799</v>
+        <v>0.2663</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>... data indicate that although  illicit drug use among youth is decreasing...</t>
+          <t>...s [4, 27, 28, 22]. End-to-end memory networks are based on a recurrent atte...</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>implementation fidelity</t>
+          <t>output sequences</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>4.3246</v>
+        <v>5.6341</v>
       </c>
       <c r="D39" t="n">
         <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1753</v>
+        <v>0.2663</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>...fficient staff training,  low implementation fidelity, stigma, curriculum overload ...</t>
+          <t>...heir distance in the input or output sequences [2, 19]. In all but a few cas...</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>use disorders</t>
+          <t>recurrent layers</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>4.3161</v>
+        <v>5.6041</v>
       </c>
       <c r="D40" t="n">
         <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1747</v>
+        <v>0.2642</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>... interventions for  substance use disorders in young people: rapid review...</t>
+          <t>...ention layers are faster than recurrent layers when the sequence 6  length n...</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>opioid use</t>
+          <t>dimension dmodel</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>3.5234</v>
+        <v>5.532</v>
       </c>
       <c r="D41" t="n">
         <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1197</v>
+        <v>0.2592</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>...mong nonmedical prescription  opioid users. Addict. Behav. 65, 218–223...</t>
+          <t>...ng layers, produce outputs of dimension dmodel = 512. Decoder: The decoder i...</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>questions address</t>
+          <t>sequence length</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>2.9453</v>
+        <v>5.5287</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0795</v>
+        <v>0.1756</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>..., the first five of the eight questions address heroin use  and the last thre...</t>
+          <t>...ch becomes critical at longer sequence lengths, as memory constraints limit...</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>use misuse</t>
+          <t>input sequence</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>2.8633</v>
+        <v>5.4085</v>
       </c>
       <c r="D43" t="n">
         <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0738</v>
+        <v>0.2506</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>...ce, access, and harms. Subst. Use Misuse 53, 2069–2076  (2018). 52.	 F...</t>
+          <t>...5]. Here, the encoder maps an input sequence of symbol representations (x1...</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>prevention program</t>
+          <t>french translation task</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>2.7056</v>
+        <v>5.3172</v>
       </c>
       <c r="D44" t="n">
         <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0629</v>
+        <v>0.2442</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>...ns challenging. School-based  prevention programmes declined from 75% in 2011 ...</t>
+          <t>...U. On the WMT 2014 English-to-French translation task, our model establishes a new ...</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>drug overdose death</t>
+          <t>softmax function</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>2.7056</v>
+        <v>5.1571</v>
       </c>
       <c r="D45" t="n">
         <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0629</v>
+        <v>0.2331</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>...4941950. An estimated 108,000 drug overdose deaths occurred in the United  Stat...</t>
+          <t>...vide each by √dk, and apply a softmax function to obtain the weights on the ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>additive attention</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>5.1074</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.2297</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>... used attention functions are additive attention [2], and dot-product (multi- ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>residual connection</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>3.5386</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1207</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>...-forward network. We employ a residual connection [11] around each of the two s...</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>separable convolution</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>3.2959</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1039</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>...ent layers, by a factor of k. Separable convolutions [6], however, decrease the c...</t>
         </is>
       </c>
     </row>
